--- a/biology/Zoologie/Cherax/Cherax.xlsx
+++ b/biology/Zoologie/Cherax/Cherax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cherax est le genre le plus important et le plus répandu d'écrevisses dans l'hémisphère sud. Originaires notamment d'Australie, des espèces de ce genre pullulent dans une eau entre 15 et 20 °C. Elles peuvent mesurer jusqu'à 26 cm à l'âge adulte.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (20 décembre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (20 décembre 2018) :
 Cherax acherontis Patoka, Bláha &amp; Kouba, 2017
 Cherax albertisii (Nobili, 1899)
 Cherax albidus Clark, 1936
@@ -568,9 +582,9 @@
 Cherax urospinosus Riek, 1969
 Cherax warsamsonicus Lukhaup, Eprilurahman &amp; von Rintelen, 2017
 Cherax wasselli Riek, 1969
-Selon Catalogue of Life                                  (20 décembre 2018)[3] :
+Selon Catalogue of Life                                  (20 décembre 2018) :
 Cherax quadricarinatus (von Martins,1868)
-Selon NCBI  (20 décembre 2018)[4] :
+Selon NCBI  (20 décembre 2018) :
 Cherax albertisii (Nobili, 1899)
 Cherax alyciae Lukhaup, Eprilurahman &amp; von Rintelen, 2018
 Cherax barretti Clark, 1941
@@ -617,7 +631,7 @@
 Cherax tenuimanus
 Cherax warsamsonicus Lukhaup, Eprilurahman &amp; von Rintelen, 2017
 Cherax wasselli Riek, 1969
-Selon World Register of Marine Species                               (20 décembre 2018)[1] :
+Selon World Register of Marine Species                               (20 décembre 2018) :
 Cherax acherontis Patoka, Bláha &amp; Kouba, 2017
 Cherax albertisii (Nobili, 1899)
 Cherax albidus Clark, 1936
